--- a/data/case1/2/Q2_14.xlsx
+++ b/data/case1/2/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.18800836608460969</v>
+        <v>0.24806121495476674</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999691342509</v>
+        <v>-0.0059999999592719178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999716808787</v>
+        <v>-0.0039999999639857009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999492006424</v>
+        <v>-0.0079999999346185291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999717427173</v>
+        <v>-0.0029999999630136998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999699482629</v>
+        <v>-0.0019999999601285623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999289424046</v>
+        <v>-0.0099999999084672275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999265918404</v>
+        <v>-0.0099999999079027901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999637216881</v>
+        <v>-0.00199999995929101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999610895713</v>
+        <v>-0.0019999999597075657</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999558363299</v>
+        <v>-0.0029999999533174559</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999952740307</v>
+        <v>-0.0034999999504616852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.003499999950266286</v>
+        <v>0.027869823833918339</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999927106316</v>
+        <v>-0.0079999999229052321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996182997819</v>
+        <v>-0.00099999996724786655</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999566246984</v>
+        <v>0.00011434601366744346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.002746669484196218</v>
+        <v>-0.0019999999594944029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999462212443</v>
+        <v>-0.0039999999464104263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999790798491</v>
+        <v>-0.049311834351340345</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999773936423</v>
+        <v>-0.0039999999622963855</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999771405115</v>
+        <v>-0.00399999996040723</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999769468886</v>
+        <v>-0.035032666332921458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999963319901</v>
+        <v>-0.0049999999555998542</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999988101564</v>
+        <v>-0.019999999855594197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.054118805904931122</v>
+        <v>-0.019999999853611783</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999673251949</v>
+        <v>0.029175098240012076</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999670241024</v>
+        <v>-0.0024999999526396088</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999679791713</v>
+        <v>-0.001999999942773556</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.029991613060884603</v>
+        <v>-0.0069999999010645908</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.010958701332887788</v>
+        <v>-0.059999999556914485</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.037650084863505739</v>
+        <v>-0.0069999998932761542</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999919779512</v>
+        <v>-0.0099999998735569307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999496931338</v>
+        <v>-0.0039999999118336405</v>
       </c>
     </row>
   </sheetData>
